--- a/氣象性能評估工具V2/data/obs/backup/2016-06-09_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-09_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-09 00:00:00</t>
+    <t>2016-06-09-00</t>
   </si>
   <si>
     <t>21.2</t>
@@ -151,7 +151,7 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>2016-06-09 01:00:00</t>
+    <t>2016-06-09-01</t>
   </si>
   <si>
     <t>20.9</t>
@@ -190,7 +190,7 @@
     <t>27.9</t>
   </si>
   <si>
-    <t>2016-06-09 02:00:00</t>
+    <t>2016-06-09-02</t>
   </si>
   <si>
     <t>25.8</t>
@@ -217,7 +217,7 @@
     <t>26.0</t>
   </si>
   <si>
-    <t>2016-06-09 03:00:00</t>
+    <t>2016-06-09-03</t>
   </si>
   <si>
     <t>22.5</t>
@@ -241,7 +241,7 @@
     <t>24.8</t>
   </si>
   <si>
-    <t>2016-06-09 04:00:00</t>
+    <t>2016-06-09-04</t>
   </si>
   <si>
     <t>21.3</t>
@@ -262,7 +262,7 @@
     <t>27.3</t>
   </si>
   <si>
-    <t>2016-06-09 05:00:00</t>
+    <t>2016-06-09-05</t>
   </si>
   <si>
     <t>21.6</t>
@@ -280,7 +280,7 @@
     <t>5.9</t>
   </si>
   <si>
-    <t>2016-06-09 06:00:00</t>
+    <t>2016-06-09-06</t>
   </si>
   <si>
     <t>22.4</t>
@@ -307,7 +307,7 @@
     <t>25.5</t>
   </si>
   <si>
-    <t>2016-06-09 07:00:00</t>
+    <t>2016-06-09-07</t>
   </si>
   <si>
     <t>23.9</t>
@@ -352,7 +352,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-09 08:00:00</t>
+    <t>2016-06-09-08</t>
   </si>
   <si>
     <t>28.9</t>
@@ -394,7 +394,7 @@
     <t>9.0</t>
   </si>
   <si>
-    <t>2016-06-09 09:00:00</t>
+    <t>2016-06-09-09</t>
   </si>
   <si>
     <t>23.3</t>
@@ -436,7 +436,7 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>2016-06-09 10:00:00</t>
+    <t>2016-06-09-10</t>
   </si>
   <si>
     <t>23.6</t>
@@ -466,7 +466,7 @@
     <t>28.7</t>
   </si>
   <si>
-    <t>2016-06-09 11:00:00</t>
+    <t>2016-06-09-11</t>
   </si>
   <si>
     <t>31.4</t>
@@ -490,7 +490,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-09 12:00:00</t>
+    <t>2016-06-09-12</t>
   </si>
   <si>
     <t>30.1</t>
@@ -508,7 +508,7 @@
     <t>10.1</t>
   </si>
   <si>
-    <t>2016-06-09 13:00:00</t>
+    <t>2016-06-09-13</t>
   </si>
   <si>
     <t>29.9</t>
@@ -526,7 +526,7 @@
     <t>30.5</t>
   </si>
   <si>
-    <t>2016-06-09 14:00:00</t>
+    <t>2016-06-09-14</t>
   </si>
   <si>
     <t>23.5</t>
@@ -535,13 +535,13 @@
     <t>9.4</t>
   </si>
   <si>
-    <t>2016-06-09 15:00:00</t>
+    <t>2016-06-09-15</t>
   </si>
   <si>
     <t>15.3</t>
   </si>
   <si>
-    <t>2016-06-09 16:00:00</t>
+    <t>2016-06-09-16</t>
   </si>
   <si>
     <t>24.1</t>
@@ -553,7 +553,7 @@
     <t>7.8</t>
   </si>
   <si>
-    <t>2016-06-09 17:00:00</t>
+    <t>2016-06-09-17</t>
   </si>
   <si>
     <t>27.7</t>
@@ -568,7 +568,7 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>2016-06-09 18:00:00</t>
+    <t>2016-06-09-18</t>
   </si>
   <si>
     <t>14.6</t>
@@ -577,7 +577,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-09 19:00:00</t>
+    <t>2016-06-09-19</t>
   </si>
   <si>
     <t>21.9</t>
@@ -592,7 +592,7 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-09 20:00:00</t>
+    <t>2016-06-09-20</t>
   </si>
   <si>
     <t>22.2</t>
@@ -607,7 +607,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2016-06-09 21:00:00</t>
+    <t>2016-06-09-21</t>
   </si>
   <si>
     <t>21.4</t>
@@ -619,13 +619,13 @@
     <t>14.0</t>
   </si>
   <si>
-    <t>2016-06-09 22:00:00</t>
+    <t>2016-06-09-22</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>2016-06-09 23:00:00</t>
+    <t>2016-06-09-23</t>
   </si>
   <si>
     <t>21.0</t>
